--- a/data/trans_orig/P36BPD02_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>31895</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22494</v>
+        <v>22620</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43418</v>
+        <v>43502</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.100033227005925</v>
+        <v>0.1000332270059251</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07054896800542698</v>
+        <v>0.07094487710117417</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1361736867184722</v>
+        <v>0.1364353858300318</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -762,19 +762,19 @@
         <v>34994</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25957</v>
+        <v>27155</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47990</v>
+        <v>47375</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1107189530017732</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08212555372314713</v>
+        <v>0.08591702730365129</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1518364204162409</v>
+        <v>0.1498916478093431</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -783,19 +783,19 @@
         <v>66889</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53404</v>
+        <v>52874</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82383</v>
+        <v>80635</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1053526567054565</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08411325267137376</v>
+        <v>0.08327878212168467</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.129755757596707</v>
+        <v>0.1270030946794172</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>38137</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28095</v>
+        <v>26866</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50992</v>
+        <v>50833</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1196083056303272</v>
+        <v>0.1196083056303273</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0881163249929335</v>
+        <v>0.08425898397303708</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1599269678329848</v>
+        <v>0.1594274782663592</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -833,19 +833,19 @@
         <v>35169</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25596</v>
+        <v>26594</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45844</v>
+        <v>46715</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1112728313377638</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08098387586692829</v>
+        <v>0.08414190971673582</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1450479461579114</v>
+        <v>0.1478030847242346</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>103</v>
@@ -854,19 +854,19 @@
         <v>73306</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>58835</v>
+        <v>61342</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>88091</v>
+        <v>89647</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.115458847790142</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09266710373009865</v>
+        <v>0.09661663647611093</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1387457823491771</v>
+        <v>0.1411973513865357</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>248813</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>233380</v>
+        <v>233467</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>262879</v>
+        <v>262840</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7803584673637477</v>
+        <v>0.7803584673637478</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7319529578761618</v>
+        <v>0.7322257110004547</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8244737900056354</v>
+        <v>0.8243502524880866</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>423</v>
@@ -904,19 +904,19 @@
         <v>245898</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>232709</v>
+        <v>231858</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>257906</v>
+        <v>257542</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.7780082156604629</v>
+        <v>0.778008215660463</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7362801978600736</v>
+        <v>0.733584665757153</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8160002798129045</v>
+        <v>0.8148504275220143</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>677</v>
@@ -925,19 +925,19 @@
         <v>494711</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>474042</v>
+        <v>475036</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>513957</v>
+        <v>512978</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7791884955044015</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7466335506610432</v>
+        <v>0.7481989158038446</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.809500802409307</v>
+        <v>0.8079587489178995</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>74645</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>55713</v>
+        <v>56265</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>96719</v>
+        <v>96784</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1619986352122505</v>
+        <v>0.1619986352122506</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1209106446322134</v>
+        <v>0.1221077709877968</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2099030931379119</v>
+        <v>0.210045535696214</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>115</v>
@@ -1050,19 +1050,19 @@
         <v>87493</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73919</v>
+        <v>71205</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>104942</v>
+        <v>103163</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1770506590841051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1495806899615161</v>
+        <v>0.1440901053500614</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2123594946405088</v>
+        <v>0.2087590417440988</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>168</v>
@@ -1071,19 +1071,19 @@
         <v>162139</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>137607</v>
+        <v>139932</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>188915</v>
+        <v>190752</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1697878247266854</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1440986832821474</v>
+        <v>0.1465338487118197</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1978277658345627</v>
+        <v>0.1997508033372903</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>247879</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>222097</v>
+        <v>220065</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>274242</v>
+        <v>274782</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5379583514913259</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4820044317905777</v>
+        <v>0.4775952254217183</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5951713538993852</v>
+        <v>0.5963429221925327</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>322</v>
@@ -1121,19 +1121,19 @@
         <v>247117</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>226434</v>
+        <v>226148</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>265651</v>
+        <v>266583</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5000620216239432</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4582093062266619</v>
+        <v>0.4576302126287962</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5375670187944929</v>
+        <v>0.5394535429373118</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>503</v>
@@ -1142,19 +1142,19 @@
         <v>494996</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>461090</v>
+        <v>461938</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>531195</v>
+        <v>527705</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.5183475870020047</v>
+        <v>0.5183475870020046</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4828422732212875</v>
+        <v>0.4837306297713858</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5562545670514341</v>
+        <v>0.5526005392278381</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>138253</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>117898</v>
+        <v>113985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>164270</v>
+        <v>162693</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3000430132964236</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2558666045189437</v>
+        <v>0.2473748050115905</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3565056863477689</v>
+        <v>0.353083085388983</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>219</v>
@@ -1192,19 +1192,19 @@
         <v>159562</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>142118</v>
+        <v>141274</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>178101</v>
+        <v>177965</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3228873192919516</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2875874542312341</v>
+        <v>0.2858797539681638</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3604031977380731</v>
+        <v>0.3601274597066795</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>321</v>
@@ -1213,19 +1213,19 @@
         <v>297815</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>264733</v>
+        <v>268583</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>325263</v>
+        <v>330781</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.31186458827131</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2772223513463956</v>
+        <v>0.2812542634984023</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3406077827313602</v>
+        <v>0.3463860364372058</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>46296</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34119</v>
+        <v>33799</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59876</v>
+        <v>61612</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1472244575568164</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1085009341754834</v>
+        <v>0.1074838852534895</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1904109969250288</v>
+        <v>0.1959299720488305</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -1338,19 +1338,19 @@
         <v>64326</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>52354</v>
+        <v>52657</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>78320</v>
+        <v>79267</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1819263470520189</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1480673690354006</v>
+        <v>0.1489261316182025</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.221506022630772</v>
+        <v>0.224182043757503</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>133</v>
@@ -1359,19 +1359,19 @@
         <v>110622</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>94820</v>
+        <v>92657</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>129851</v>
+        <v>130063</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1655915381312189</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1419382362315861</v>
+        <v>0.1387002422754053</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1943758191452403</v>
+        <v>0.1946929800716468</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>99238</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83236</v>
+        <v>83455</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115795</v>
+        <v>116486</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3155854984836496</v>
+        <v>0.3155854984836497</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2646965111184633</v>
+        <v>0.2653934926567022</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3682366338072753</v>
+        <v>0.3704351214385366</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>133</v>
@@ -1409,19 +1409,19 @@
         <v>82967</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70738</v>
+        <v>71085</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97460</v>
+        <v>97519</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.234647975011387</v>
+        <v>0.2346479750113871</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2000614810568538</v>
+        <v>0.2010443465508388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2756367660308898</v>
+        <v>0.2758026209873193</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>247</v>
@@ -1430,19 +1430,19 @@
         <v>182205</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>162690</v>
+        <v>162177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>204824</v>
+        <v>203166</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2727467356170582</v>
+        <v>0.2727467356170583</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2435340767209628</v>
+        <v>0.2427662297204759</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3066054263563652</v>
+        <v>0.3041234480916034</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>168924</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>151941</v>
+        <v>149964</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>187047</v>
+        <v>185615</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.537190043959534</v>
+        <v>0.5371900439595338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4831825313805894</v>
+        <v>0.4768951952586677</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5948242708190906</v>
+        <v>0.5902707901853568</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>310</v>
@@ -1480,19 +1480,19 @@
         <v>206288</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>188761</v>
+        <v>190672</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>222664</v>
+        <v>222005</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5834256779365939</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5338550964139156</v>
+        <v>0.5392584968498955</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.629738920500194</v>
+        <v>0.6278752923272627</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>509</v>
@@ -1501,19 +1501,19 @@
         <v>375212</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>349861</v>
+        <v>351147</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>396669</v>
+        <v>398423</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5616617262517228</v>
+        <v>0.5616617262517229</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5237134604653642</v>
+        <v>0.52563894865838</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5937810042692596</v>
+        <v>0.5964063960400494</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>21371</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12551</v>
+        <v>12335</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33233</v>
+        <v>34795</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0740732124962426</v>
+        <v>0.07407321249624257</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04350293208577969</v>
+        <v>0.0427541858309247</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1151850441985751</v>
+        <v>0.1206007455840361</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1626,19 +1626,19 @@
         <v>22690</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14546</v>
+        <v>14189</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37617</v>
+        <v>36553</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06443265609683189</v>
+        <v>0.06443265609683188</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0413054220549876</v>
+        <v>0.04029364913108734</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.106820261780557</v>
+        <v>0.1037981275647321</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -1647,19 +1647,19 @@
         <v>44061</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30595</v>
+        <v>31081</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61900</v>
+        <v>60836</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06877415402213702</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04775434281610082</v>
+        <v>0.04851321776339222</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0966173387562804</v>
+        <v>0.09495674575310774</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>97682</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>78337</v>
+        <v>80679</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>116741</v>
+        <v>119245</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3385649398243361</v>
+        <v>0.338564939824336</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2715154029914976</v>
+        <v>0.2796345151572286</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.404623699231753</v>
+        <v>0.4133037187919331</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>205</v>
@@ -1697,19 +1697,19 @@
         <v>139896</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>122919</v>
+        <v>122255</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>158146</v>
+        <v>156945</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3972589838341093</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3490507024152167</v>
+        <v>0.3471658347253361</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4490857384097974</v>
+        <v>0.4456742292134303</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>298</v>
@@ -1718,19 +1718,19 @@
         <v>237577</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>213393</v>
+        <v>211766</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>264951</v>
+        <v>263328</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3708268921851486</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3330785771308366</v>
+        <v>0.3305388160719134</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4135530757198595</v>
+        <v>0.4110203375290739</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>169464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>149651</v>
+        <v>148245</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>190904</v>
+        <v>189643</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5873618476794213</v>
+        <v>0.5873618476794211</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5186886922278646</v>
+        <v>0.5138176896716471</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6616741107244191</v>
+        <v>0.6573039087745561</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>261</v>
@@ -1768,19 +1768,19 @@
         <v>189566</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>172294</v>
+        <v>172170</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>207435</v>
+        <v>207192</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5383083600690587</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4892598178385484</v>
+        <v>0.4889087045095013</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5890493559919493</v>
+        <v>0.5883596224392795</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>385</v>
@@ -1789,19 +1789,19 @@
         <v>359030</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>330337</v>
+        <v>329700</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>385575</v>
+        <v>383921</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5603989537927144</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5156119072803227</v>
+        <v>0.5146185012209343</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6018310832584699</v>
+        <v>0.5992506508690238</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>18033</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11367</v>
+        <v>11148</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26593</v>
+        <v>27165</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08795214133591434</v>
+        <v>0.08795214133591432</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0554386697924337</v>
+        <v>0.05437255226383377</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1297031163305898</v>
+        <v>0.1324920596393309</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -1914,19 +1914,19 @@
         <v>8413</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5149</v>
+        <v>5226</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13279</v>
+        <v>13506</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03744194582009213</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02291750011439633</v>
+        <v>0.0232583716700165</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0591001710483272</v>
+        <v>0.06010802834992225</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -1935,19 +1935,19 @@
         <v>26446</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19321</v>
+        <v>18456</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>36136</v>
+        <v>36467</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.06154159753286415</v>
+        <v>0.06154159753286416</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04496196784589462</v>
+        <v>0.04294862644042219</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08409185632960162</v>
+        <v>0.08486263661184891</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>148314</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>136419</v>
+        <v>137445</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>158783</v>
+        <v>159299</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7233764300962696</v>
+        <v>0.7233764300962694</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6653590811961406</v>
+        <v>0.6703674520499924</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7744396373626257</v>
+        <v>0.7769565474019665</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>360</v>
@@ -1985,19 +1985,19 @@
         <v>165877</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>155959</v>
+        <v>154520</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>175332</v>
+        <v>174967</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7382486644727677</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6941075813322776</v>
+        <v>0.6877011051512726</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.780330262298556</v>
+        <v>0.7787042310863392</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>560</v>
@@ -2006,19 +2006,19 @@
         <v>314191</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>299119</v>
+        <v>300670</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>328642</v>
+        <v>328152</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.7311527571019073</v>
+        <v>0.7311527571019075</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6960798305950331</v>
+        <v>0.6996888324742733</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7647805732567482</v>
+        <v>0.7636413715038232</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>38683</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29102</v>
+        <v>30198</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48272</v>
+        <v>48205</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1886714285678162</v>
+        <v>0.1886714285678161</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1419383539323254</v>
+        <v>0.1472856705590098</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.235437856406024</v>
+        <v>0.2351142123152328</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>108</v>
@@ -2056,19 +2056,19 @@
         <v>50400</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41419</v>
+        <v>41544</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>59565</v>
+        <v>61445</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2243093897071402</v>
+        <v>0.2243093897071401</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1843381744002605</v>
+        <v>0.1848929485190993</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2650976148272676</v>
+        <v>0.2734654583688244</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>164</v>
@@ -2077,19 +2077,19 @@
         <v>89083</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>76559</v>
+        <v>77550</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>103894</v>
+        <v>102620</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2073056453652285</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1781608049788919</v>
+        <v>0.1804673579595613</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2417721391773718</v>
+        <v>0.2388067596189364</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>50450</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>39584</v>
+        <v>40030</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>62009</v>
+        <v>62959</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1872490344794089</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1469203672803651</v>
+        <v>0.1485731075030721</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2301509814054961</v>
+        <v>0.2336755599078995</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>150</v>
@@ -2202,19 +2202,19 @@
         <v>91881</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>79294</v>
+        <v>80874</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>104868</v>
+        <v>105393</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.349114297290413</v>
+        <v>0.3491142972904129</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.301288186963291</v>
+        <v>0.3072905619675135</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3984579392269027</v>
+        <v>0.4004542602046897</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>219</v>
@@ -2223,19 +2223,19 @@
         <v>142331</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>124173</v>
+        <v>125736</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>158563</v>
+        <v>159910</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2672327220200842</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2331391316026851</v>
+        <v>0.2360740978372014</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2977084639531556</v>
+        <v>0.3002374661908334</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>122189</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>109598</v>
+        <v>107844</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>137317</v>
+        <v>138027</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4535128824066884</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4067804314374355</v>
+        <v>0.4002706765636493</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5096624206396502</v>
+        <v>0.5122948288460403</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>218</v>
@@ -2276,16 +2276,16 @@
         <v>108822</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>133993</v>
+        <v>132210</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4592246101051383</v>
+        <v>0.4592246101051381</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4134830969291128</v>
+        <v>0.4134814639757824</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5091245237955782</v>
+        <v>0.5023467753549589</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>383</v>
@@ -2294,19 +2294,19 @@
         <v>243050</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>225212</v>
+        <v>225273</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>262677</v>
+        <v>261072</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4563352609431112</v>
+        <v>0.4563352609431113</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4228442907166028</v>
+        <v>0.4229591035525779</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4931870679908582</v>
+        <v>0.4901736964600572</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>96789</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>83607</v>
+        <v>83604</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>110615</v>
+        <v>113060</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3592380831139029</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3103144486907338</v>
+        <v>0.31030239802285</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4105565835159161</v>
+        <v>0.4196313095498725</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>91</v>
@@ -2344,19 +2344,19 @@
         <v>50442</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42070</v>
+        <v>40421</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>61473</v>
+        <v>60333</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1916610926044487</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1598510928250551</v>
+        <v>0.1535858957440968</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2335752168158642</v>
+        <v>0.2292427145424694</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>226</v>
@@ -2365,19 +2365,19 @@
         <v>147231</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>130282</v>
+        <v>129666</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>164298</v>
+        <v>165244</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2764320170368045</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2446101080346316</v>
+        <v>0.2434520836257901</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3084763328319021</v>
+        <v>0.3102524473869162</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>85729</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>66993</v>
+        <v>66884</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>109271</v>
+        <v>107268</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1242878009226823</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09712509189562291</v>
+        <v>0.09696763143001735</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1584195963290931</v>
+        <v>0.1555157036876225</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>100</v>
@@ -2490,19 +2490,19 @@
         <v>88526</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>71842</v>
+        <v>73068</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>107672</v>
+        <v>108565</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1168992235708941</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09486770253502778</v>
+        <v>0.09648761669011227</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1421823927981089</v>
+        <v>0.1433609573183029</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>168</v>
@@ -2511,19 +2511,19 @@
         <v>174254</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>149554</v>
+        <v>146737</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>202624</v>
+        <v>200871</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1204211256891959</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1033517560102873</v>
+        <v>0.101404965908456</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1400263777612776</v>
+        <v>0.1388149096701372</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>328846</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>295781</v>
+        <v>297906</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>358183</v>
+        <v>356932</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4767557572783289</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4288189648806324</v>
+        <v>0.4318990089099949</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5192883650850052</v>
+        <v>0.5174747169846633</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>478</v>
@@ -2561,19 +2561,19 @@
         <v>391048</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>366816</v>
+        <v>365467</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>418824</v>
+        <v>416433</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5163847822542286</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.484385860560116</v>
+        <v>0.4826039698250642</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5530627325995209</v>
+        <v>0.5499057537915594</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>751</v>
@@ -2582,19 +2582,19 @@
         <v>719895</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>681226</v>
+        <v>681188</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>762849</v>
+        <v>759023</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4974948741753645</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4707720283641737</v>
+        <v>0.4707456045050928</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5271789000836936</v>
+        <v>0.5245351605407866</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>275183</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>247107</v>
+        <v>249406</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>306527</v>
+        <v>305003</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3989564417989888</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.358251355031717</v>
+        <v>0.361584383018288</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.44439776637443</v>
+        <v>0.4421888741379694</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>364</v>
@@ -2632,19 +2632,19 @@
         <v>277707</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>253362</v>
+        <v>255214</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>300647</v>
+        <v>303162</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3667159941748773</v>
+        <v>0.3667159941748772</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3345685275970249</v>
+        <v>0.337012965674957</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3970088148738954</v>
+        <v>0.4003290083114645</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>603</v>
@@ -2653,19 +2653,19 @@
         <v>552891</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>516183</v>
+        <v>517187</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>593492</v>
+        <v>591388</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3820840001354395</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3567165272785602</v>
+        <v>0.3574104280645409</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4101420246347433</v>
+        <v>0.4086879888688906</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>199528</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>176485</v>
+        <v>174730</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>226770</v>
+        <v>227143</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.25226288446598</v>
+        <v>0.2522628844659801</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2231289779514464</v>
+        <v>0.2209111329796732</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2867047512260841</v>
+        <v>0.2871763124822281</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>221</v>
@@ -2778,19 +2778,19 @@
         <v>176372</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>157633</v>
+        <v>156057</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>198975</v>
+        <v>199024</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2138450318884193</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1911237736051929</v>
+        <v>0.1892139770634991</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2412503269048957</v>
+        <v>0.2413088076561273</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>402</v>
@@ -2799,19 +2799,19 @@
         <v>375900</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>342804</v>
+        <v>340794</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>411096</v>
+        <v>408914</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2326519481395773</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2121676501212581</v>
+        <v>0.2109239390410012</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2544353806100438</v>
+        <v>0.2530849251327554</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>464526</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>435744</v>
+        <v>434037</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>493944</v>
+        <v>492175</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5872993808848965</v>
+        <v>0.5872993808848966</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5509099459798145</v>
+        <v>0.548752410226018</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6244916581567495</v>
+        <v>0.6222554131057474</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>642</v>
@@ -2849,19 +2849,19 @@
         <v>495545</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>471105</v>
+        <v>469469</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>520951</v>
+        <v>521212</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6008308170426038</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5711979953820555</v>
+        <v>0.5692141679241929</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6316344732969688</v>
+        <v>0.6319501247738055</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1096</v>
@@ -2870,19 +2870,19 @@
         <v>960072</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>921855</v>
+        <v>918241</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>998942</v>
+        <v>1001329</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5942066938940723</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5705535770359681</v>
+        <v>0.56831697278726</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6182641413134586</v>
+        <v>0.6197414315978231</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>126899</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>103760</v>
+        <v>106864</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>149857</v>
+        <v>150489</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1604377346491234</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1311834397545248</v>
+        <v>0.1351080907511003</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1894636537097829</v>
+        <v>0.190263163213003</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>192</v>
@@ -2920,19 +2920,19 @@
         <v>152849</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>132874</v>
+        <v>132128</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>176056</v>
+        <v>174468</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1853241510689767</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1611049791232492</v>
+        <v>0.1601998827102017</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.213462030037538</v>
+        <v>0.2115360110044603</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>313</v>
@@ -2941,19 +2941,19 @@
         <v>279748</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>252558</v>
+        <v>251544</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>310679</v>
+        <v>311314</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1731413579663504</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.156313004897952</v>
+        <v>0.1556852620601238</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1922851577188579</v>
+        <v>0.1926781909456466</v>
       </c>
     </row>
     <row r="35">
@@ -3045,19 +3045,19 @@
         <v>527947</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>482352</v>
+        <v>482048</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>572480</v>
+        <v>573737</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1581738044843941</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1445134075436782</v>
+        <v>0.1444221125490572</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1715157167542964</v>
+        <v>0.1718923941806875</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>771</v>
@@ -3066,19 +3066,19 @@
         <v>574695</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>538170</v>
+        <v>535387</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>615465</v>
+        <v>619437</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.160265766945079</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1500799565620696</v>
+        <v>0.1493037771720671</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1716353257811374</v>
+        <v>0.1727430850739147</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1262</v>
@@ -3087,19 +3087,19 @@
         <v>1102642</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1044175</v>
+        <v>1040039</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1168459</v>
+        <v>1162476</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1592572700574476</v>
+        <v>0.1592572700574475</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1508126814409217</v>
+        <v>0.1502152438537344</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1687633078302587</v>
+        <v>0.1678992013424893</v>
       </c>
     </row>
     <row r="37">
@@ -3116,19 +3116,19 @@
         <v>1546811</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1489871</v>
+        <v>1488605</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1613906</v>
+        <v>1613852</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4634269044085055</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4463675263120574</v>
+        <v>0.4459881701653802</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4835283685244292</v>
+        <v>0.4835122485600398</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2419</v>
@@ -3137,19 +3137,19 @@
         <v>1678480</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1629271</v>
+        <v>1625572</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1733616</v>
+        <v>1730429</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4680792639463003</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4543562226219665</v>
+        <v>0.4533247636084246</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4834550231178973</v>
+        <v>0.482566250824069</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3941</v>
@@ -3158,19 +3158,19 @@
         <v>3225291</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3135426</v>
+        <v>3147700</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3301900</v>
+        <v>3305269</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.46583644639953</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.452857123892281</v>
+        <v>0.4546298232538105</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4769012388619037</v>
+        <v>0.477387878387199</v>
       </c>
     </row>
     <row r="38">
@@ -3187,19 +3187,19 @@
         <v>1263009</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1201796</v>
+        <v>1198852</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1323837</v>
+        <v>1325182</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3783992911071005</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3600599185509605</v>
+        <v>0.3591777994912305</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3966232976555152</v>
+        <v>0.3970264128963005</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1968</v>
@@ -3208,19 +3208,19 @@
         <v>1332713</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1279978</v>
+        <v>1278825</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1380606</v>
+        <v>1385879</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.3716549691086206</v>
+        <v>0.3716549691086207</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3569486426693318</v>
+        <v>0.3566271234035298</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3850109870830746</v>
+        <v>0.3864813905676184</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3198</v>
@@ -3229,19 +3229,19 @@
         <v>2595722</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2517761</v>
+        <v>2514669</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2679461</v>
+        <v>2677101</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3749062835430226</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3636462358405152</v>
+        <v>0.3631995686116832</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3870009181958278</v>
+        <v>0.3866600249931918</v>
       </c>
     </row>
     <row r="39">
